--- a/database/relatorio/PE 90006-2024/ROSSI_PRODUTOS_HOSPITALARES_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90006-2024/ROSSI_PRODUTOS_HOSPITALARES_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 8 - ÁGUA DESTILADA (352317)</t>
+          <t>Grupo N/A - Item 8 - ÁGUA DESTILADA (352317)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 28 - ATADURA (444355)</t>
+          <t>Grupo N/A - Item 28 - ATADURA (444355)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 37 - BANDEJA DE AÇO (297983)</t>
+          <t>Grupo N/A - Item 37 - BANDEJA DE AÇO (297983)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 38 - BANDEJA (440181)</t>
+          <t>Grupo N/A - Item 38 - BANDEJA (440181)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 40 - BISTURI DESCARTÁVEL (412834)</t>
+          <t>Grupo N/A - Item 40 - BISTURI DESCARTÁVEL (412834)</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Item: 41 - BISTURI DESCARTÁVEL (244719)</t>
+          <t>Grupo N/A - Item 41 - BISTURI DESCARTÁVEL (244719)</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 42 - CABO BISTURI (272821)</t>
+          <t>Grupo N/A - Item 42 - CABO BISTURI (272821)</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Item: 43 - CABO BISTURI (243242)</t>
+          <t>Grupo N/A - Item 43 - CABO BISTURI (243242)</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Item: 46 - CAMPO CIRÚRGICO (607052)</t>
+          <t>Grupo N/A - Item 46 - CAMPO CIRÚRGICO (607052)</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 47 - CAMPO CIRÚRGICO (607053)</t>
+          <t>Grupo N/A - Item 47 - CAMPO CIRÚRGICO (607053)</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Item: 50 - CLORETO DE SÓDIO (452796)</t>
+          <t>Grupo N/A - Item 50 - CLORETO DE SÓDIO (452796)</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Item: 55 - CLOREXIDINA DIGLUCONATO (269876)</t>
+          <t>Grupo N/A - Item 55 - CLOREXIDINA DIGLUCONATO (269876)</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 67 - CUBA USO HOSPITALAR (439209)</t>
+          <t>Grupo N/A - Item 67 - CUBA USO HOSPITALAR (439209)</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Item: 74 - EMBALAGEM P, ESTERILIZAÇÃO (442484)</t>
+          <t>Grupo N/A - Item 74 - EMBALAGEM P, ESTERILIZAÇÃO (442484)</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Item: 75 - EMBALAGEM P (442386)</t>
+          <t>Grupo N/A - Item 75 - EMBALAGEM P (442386)</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Item: 76 - EMBALAGEM P, ESTERILIZAÇÃO (443438)</t>
+          <t>Grupo N/A - Item 76 - EMBALAGEM P, ESTERILIZAÇÃO (443438)</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Item: 94 - ESTETOSCÓPIO (438922)</t>
+          <t>Grupo N/A - Item 94 - ESTETOSCÓPIO (438922)</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Item: 104 - GARROTE (445572)</t>
+          <t>Grupo N/A - Item 104 - GARROTE (445572)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Item: 140 - PERÓXIDO DE HIDROGÊNIO (ÁGUA OXIGENADA) (277319)</t>
+          <t>Grupo N/A - Item 140 - PERÓXIDO DE HIDROGÊNIO (ÁGUA OXIGENADA) (277319)</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Item: 159 - PETROLATO (401692)</t>
+          <t>Grupo N/A - Item 159 - PETROLATO (401692)</t>
         </is>
       </c>
     </row>
